--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_error_tables_latest_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_error_tables_latest_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1935157310660744</v>
+        <v>0.1660323612164193</v>
       </c>
       <c r="C2">
-        <v>0.5056734517678826</v>
+        <v>0.468872571632237</v>
       </c>
       <c r="D2">
-        <v>0.4105294038050272</v>
+        <v>0.3770675980855352</v>
       </c>
       <c r="E2">
-        <v>0.6407256853014613</v>
+        <v>0.6140583018619121</v>
       </c>
       <c r="F2">
-        <v>0.6338608752284479</v>
+        <v>0.6119356173368786</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2571002810750916</v>
+        <v>0.2261183143199825</v>
       </c>
       <c r="C3">
-        <v>0.5370381380109251</v>
+        <v>0.4923620343352079</v>
       </c>
       <c r="D3">
-        <v>0.5311021543415566</v>
+        <v>0.4821095245989872</v>
       </c>
       <c r="E3">
-        <v>0.7287675585133827</v>
+        <v>0.6943410722397079</v>
       </c>
       <c r="F3">
-        <v>0.7097546992661533</v>
+        <v>0.6812725906144649</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2673385697687831</v>
+        <v>0.2360243239862733</v>
       </c>
       <c r="C4">
-        <v>0.5759227059425638</v>
+        <v>0.5248832413428339</v>
       </c>
       <c r="D4">
-        <v>0.415401831518154</v>
+        <v>0.37481815022521</v>
       </c>
       <c r="E4">
-        <v>0.644516742620511</v>
+        <v>0.6122239379714011</v>
       </c>
       <c r="F4">
-        <v>0.612534455252454</v>
+        <v>0.5879653258807318</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3448183640428347</v>
+        <v>0.3051580102940423</v>
       </c>
       <c r="C5">
-        <v>0.4416242307419577</v>
+        <v>0.3983834828835194</v>
       </c>
       <c r="D5">
-        <v>0.2766353991434012</v>
+        <v>0.2461501466550942</v>
       </c>
       <c r="E5">
-        <v>0.5259614046138759</v>
+        <v>0.4961352100537657</v>
       </c>
       <c r="F5">
-        <v>0.4165444327541143</v>
+        <v>0.4085834536877719</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3846739064769301</v>
+        <v>0.3404744896530312</v>
       </c>
       <c r="C6">
-        <v>0.617754719426783</v>
+        <v>0.5484269867923621</v>
       </c>
       <c r="D6">
-        <v>0.6094194036379206</v>
+        <v>0.5429546666577961</v>
       </c>
       <c r="E6">
-        <v>0.7806531903719606</v>
+        <v>0.736854576329547</v>
       </c>
       <c r="F6">
-        <v>0.7160426657940453</v>
+        <v>0.6853721378992834</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3748005466841689</v>
+        <v>0.3329151699208477</v>
       </c>
       <c r="C7">
-        <v>0.6395293989802554</v>
+        <v>0.5578246582442683</v>
       </c>
       <c r="D7">
-        <v>0.5434732796029795</v>
+        <v>0.4732217363555192</v>
       </c>
       <c r="E7">
-        <v>0.7372064023073724</v>
+        <v>0.6879111398687473</v>
       </c>
       <c r="F7">
-        <v>0.6733294576462967</v>
+        <v>0.6345507824806217</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3141654416533842</v>
+        <v>0.2814885994813455</v>
       </c>
       <c r="C8">
-        <v>0.6635337224268022</v>
+        <v>0.5772087615654313</v>
       </c>
       <c r="D8">
-        <v>0.6067363972139066</v>
+        <v>0.5238078509972534</v>
       </c>
       <c r="E8">
-        <v>0.7789328579626787</v>
+        <v>0.7237457087936711</v>
       </c>
       <c r="F8">
-        <v>0.761979731627435</v>
+        <v>0.7072082591282391</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3313358489906491</v>
+        <v>0.3213393071819032</v>
       </c>
       <c r="C9">
-        <v>0.6802131858450142</v>
+        <v>0.6123030108606557</v>
       </c>
       <c r="D9">
-        <v>0.6086784038082332</v>
+        <v>0.5290292607895575</v>
       </c>
       <c r="E9">
-        <v>0.7801784435680297</v>
+        <v>0.7273439769390804</v>
       </c>
       <c r="F9">
-        <v>0.762918159970119</v>
+        <v>0.6975633594976256</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.4984828493214334</v>
+        <v>0.4424481932715923</v>
       </c>
       <c r="C10">
-        <v>0.4984828493214334</v>
+        <v>0.4424481932715923</v>
       </c>
       <c r="D10">
-        <v>0.2841334392880041</v>
+        <v>0.2455568012204569</v>
       </c>
       <c r="E10">
-        <v>0.5330416862572795</v>
+        <v>0.4955368817963572</v>
       </c>
       <c r="F10">
-        <v>0.2068283004437906</v>
+        <v>0.2410306973665816</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3989640849293917</v>
+        <v>0.3495035403546135</v>
       </c>
       <c r="C11">
-        <v>0.5175356038911059</v>
+        <v>0.4324022405235847</v>
       </c>
       <c r="D11">
-        <v>0.4577793848798742</v>
+        <v>0.3358454641318753</v>
       </c>
       <c r="E11">
-        <v>0.6765939586486671</v>
+        <v>0.5795217546666176</v>
       </c>
       <c r="F11">
-        <v>0.6109491016201015</v>
+        <v>0.5063904494495919</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_error_tables_latest_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_error_tables_latest_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1660323612164193</v>
+        <v>0.2261183143199825</v>
       </c>
       <c r="C2">
-        <v>0.468872571632237</v>
+        <v>0.4923620343352079</v>
       </c>
       <c r="D2">
-        <v>0.3770675980855352</v>
+        <v>0.4821095245989872</v>
       </c>
       <c r="E2">
-        <v>0.6140583018619121</v>
+        <v>0.6943410722397079</v>
       </c>
       <c r="F2">
-        <v>0.6119356173368786</v>
+        <v>0.6812725906144649</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2261183143199825</v>
+        <v>0.2360243239862733</v>
       </c>
       <c r="C3">
-        <v>0.4923620343352079</v>
+        <v>0.5248832413428339</v>
       </c>
       <c r="D3">
-        <v>0.4821095245989872</v>
+        <v>0.37481815022521</v>
       </c>
       <c r="E3">
-        <v>0.6943410722397079</v>
+        <v>0.6122239379714011</v>
       </c>
       <c r="F3">
-        <v>0.6812725906144649</v>
+        <v>0.5879653258807318</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2360243239862733</v>
+        <v>0.3051580102940423</v>
       </c>
       <c r="C4">
-        <v>0.5248832413428339</v>
+        <v>0.3983834828835194</v>
       </c>
       <c r="D4">
-        <v>0.37481815022521</v>
+        <v>0.2461501466550942</v>
       </c>
       <c r="E4">
-        <v>0.6122239379714011</v>
+        <v>0.4961352100537657</v>
       </c>
       <c r="F4">
-        <v>0.5879653258807318</v>
+        <v>0.4085834536877719</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3051580102940423</v>
+        <v>0.3404744896530312</v>
       </c>
       <c r="C5">
-        <v>0.3983834828835194</v>
+        <v>0.5484269867923621</v>
       </c>
       <c r="D5">
-        <v>0.2461501466550942</v>
+        <v>0.5429546666577961</v>
       </c>
       <c r="E5">
-        <v>0.4961352100537657</v>
+        <v>0.736854576329547</v>
       </c>
       <c r="F5">
-        <v>0.4085834536877719</v>
+        <v>0.6853721378992834</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3404744896530312</v>
+        <v>0.3329151699208477</v>
       </c>
       <c r="C6">
-        <v>0.5484269867923621</v>
+        <v>0.5578246582442683</v>
       </c>
       <c r="D6">
-        <v>0.5429546666577961</v>
+        <v>0.4732217363555192</v>
       </c>
       <c r="E6">
-        <v>0.736854576329547</v>
+        <v>0.6879111398687473</v>
       </c>
       <c r="F6">
-        <v>0.6853721378992834</v>
+        <v>0.6345507824806217</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3329151699208477</v>
+        <v>0.2814885994813455</v>
       </c>
       <c r="C7">
-        <v>0.5578246582442683</v>
+        <v>0.5772087615654313</v>
       </c>
       <c r="D7">
-        <v>0.4732217363555192</v>
+        <v>0.5238078509972534</v>
       </c>
       <c r="E7">
-        <v>0.6879111398687473</v>
+        <v>0.7237457087936711</v>
       </c>
       <c r="F7">
-        <v>0.6345507824806217</v>
+        <v>0.7072082591282391</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2814885994813455</v>
+        <v>0.3213393071819032</v>
       </c>
       <c r="C8">
-        <v>0.5772087615654313</v>
+        <v>0.6123030108606557</v>
       </c>
       <c r="D8">
-        <v>0.5238078509972534</v>
+        <v>0.5290292607895575</v>
       </c>
       <c r="E8">
-        <v>0.7237457087936711</v>
+        <v>0.7273439769390804</v>
       </c>
       <c r="F8">
-        <v>0.7072082591282391</v>
+        <v>0.6975633594976256</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3213393071819032</v>
+        <v>0.4424481932715923</v>
       </c>
       <c r="C9">
-        <v>0.6123030108606557</v>
+        <v>0.4424481932715923</v>
       </c>
       <c r="D9">
-        <v>0.5290292607895575</v>
+        <v>0.2455568012204569</v>
       </c>
       <c r="E9">
-        <v>0.7273439769390804</v>
+        <v>0.4955368817963572</v>
       </c>
       <c r="F9">
-        <v>0.6975633594976256</v>
+        <v>0.2410306973665816</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.4424481932715923</v>
+        <v>0.3495035403546135</v>
       </c>
       <c r="C10">
-        <v>0.4424481932715923</v>
+        <v>0.4324022405235847</v>
       </c>
       <c r="D10">
-        <v>0.2455568012204569</v>
+        <v>0.3358454641318753</v>
       </c>
       <c r="E10">
-        <v>0.4955368817963572</v>
+        <v>0.5795217546666176</v>
       </c>
       <c r="F10">
-        <v>0.2410306973665816</v>
+        <v>0.5063904494495919</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3495035403546135</v>
+        <v>0.3440184634525137</v>
       </c>
       <c r="C11">
-        <v>0.4324022405235847</v>
+        <v>0.5149267570503927</v>
       </c>
       <c r="D11">
-        <v>0.3358454641318753</v>
+        <v>0.3569218089138015</v>
       </c>
       <c r="E11">
-        <v>0.5795217546666176</v>
+        <v>0.5974293338243457</v>
       </c>
       <c r="F11">
-        <v>0.5063904494495919</v>
+        <v>0.5460919173060211</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_error_tables_latest_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_error_tables_latest_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2261183143199825</v>
+        <v>0.1660323612164193</v>
       </c>
       <c r="C2">
-        <v>0.4923620343352079</v>
+        <v>0.468872571632237</v>
       </c>
       <c r="D2">
-        <v>0.4821095245989872</v>
+        <v>0.3770675980855352</v>
       </c>
       <c r="E2">
-        <v>0.6943410722397079</v>
+        <v>0.6140583018619121</v>
       </c>
       <c r="F2">
-        <v>0.6812725906144649</v>
+        <v>0.6119356173368786</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2360243239862733</v>
+        <v>0.2261183143199825</v>
       </c>
       <c r="C3">
-        <v>0.5248832413428339</v>
+        <v>0.4923620343352079</v>
       </c>
       <c r="D3">
-        <v>0.37481815022521</v>
+        <v>0.4821095245989872</v>
       </c>
       <c r="E3">
-        <v>0.6122239379714011</v>
+        <v>0.6943410722397079</v>
       </c>
       <c r="F3">
-        <v>0.5879653258807318</v>
+        <v>0.6812725906144649</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.3051580102940423</v>
+        <v>0.2360243239862733</v>
       </c>
       <c r="C4">
-        <v>0.3983834828835194</v>
+        <v>0.5248832413428339</v>
       </c>
       <c r="D4">
-        <v>0.2461501466550942</v>
+        <v>0.37481815022521</v>
       </c>
       <c r="E4">
-        <v>0.4961352100537657</v>
+        <v>0.6122239379714011</v>
       </c>
       <c r="F4">
-        <v>0.4085834536877719</v>
+        <v>0.5879653258807318</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3404744896530312</v>
+        <v>0.3051580102940423</v>
       </c>
       <c r="C5">
-        <v>0.5484269867923621</v>
+        <v>0.3983834828835194</v>
       </c>
       <c r="D5">
-        <v>0.5429546666577961</v>
+        <v>0.2461501466550942</v>
       </c>
       <c r="E5">
-        <v>0.736854576329547</v>
+        <v>0.4961352100537657</v>
       </c>
       <c r="F5">
-        <v>0.6853721378992834</v>
+        <v>0.4085834536877719</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3329151699208477</v>
+        <v>0.3404744896530312</v>
       </c>
       <c r="C6">
-        <v>0.5578246582442683</v>
+        <v>0.5484269867923621</v>
       </c>
       <c r="D6">
-        <v>0.4732217363555192</v>
+        <v>0.5429546666577961</v>
       </c>
       <c r="E6">
-        <v>0.6879111398687473</v>
+        <v>0.736854576329547</v>
       </c>
       <c r="F6">
-        <v>0.6345507824806217</v>
+        <v>0.6853721378992834</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2814885994813455</v>
+        <v>0.3329151699208477</v>
       </c>
       <c r="C7">
-        <v>0.5772087615654313</v>
+        <v>0.5578246582442683</v>
       </c>
       <c r="D7">
-        <v>0.5238078509972534</v>
+        <v>0.4732217363555192</v>
       </c>
       <c r="E7">
-        <v>0.7237457087936711</v>
+        <v>0.6879111398687473</v>
       </c>
       <c r="F7">
-        <v>0.7072082591282391</v>
+        <v>0.6345507824806217</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3213393071819032</v>
+        <v>0.2814885994813455</v>
       </c>
       <c r="C8">
-        <v>0.6123030108606557</v>
+        <v>0.5772087615654313</v>
       </c>
       <c r="D8">
-        <v>0.5290292607895575</v>
+        <v>0.5238078509972534</v>
       </c>
       <c r="E8">
-        <v>0.7273439769390804</v>
+        <v>0.7237457087936711</v>
       </c>
       <c r="F8">
-        <v>0.6975633594976256</v>
+        <v>0.7072082591282391</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4424481932715923</v>
+        <v>0.3213393071819032</v>
       </c>
       <c r="C9">
-        <v>0.4424481932715923</v>
+        <v>0.6123030108606557</v>
       </c>
       <c r="D9">
-        <v>0.2455568012204569</v>
+        <v>0.5290292607895575</v>
       </c>
       <c r="E9">
-        <v>0.4955368817963572</v>
+        <v>0.7273439769390804</v>
       </c>
       <c r="F9">
-        <v>0.2410306973665816</v>
+        <v>0.6975633594976256</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3495035403546135</v>
+        <v>0.4424481932715923</v>
       </c>
       <c r="C10">
-        <v>0.4324022405235847</v>
+        <v>0.4424481932715923</v>
       </c>
       <c r="D10">
-        <v>0.3358454641318753</v>
+        <v>0.2455568012204569</v>
       </c>
       <c r="E10">
-        <v>0.5795217546666176</v>
+        <v>0.4955368817963572</v>
       </c>
       <c r="F10">
-        <v>0.5063904494495919</v>
+        <v>0.2410306973665816</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3440184634525137</v>
+        <v>0.3495035403546135</v>
       </c>
       <c r="C11">
-        <v>0.5149267570503927</v>
+        <v>0.4324022405235847</v>
       </c>
       <c r="D11">
-        <v>0.3569218089138015</v>
+        <v>0.3358454641318753</v>
       </c>
       <c r="E11">
-        <v>0.5974293338243457</v>
+        <v>0.5795217546666176</v>
       </c>
       <c r="F11">
-        <v>0.5460919173060211</v>
+        <v>0.5063904494495919</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
